--- a/RELATÓRIO DENGŌ.xlsx
+++ b/RELATÓRIO DENGŌ.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{718CE7F3-1FDB-474C-BBE3-ACC1CCA1AC11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/03e0f8aa422fcca4/Área de Trabalho/DENGO/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{718CE7F3-1FDB-474C-BBE3-ACC1CCA1AC11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6383C7D1-0CF3-4D42-837E-4F1DD64E14CC}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="84" yWindow="0" windowWidth="22956" windowHeight="12240" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MENU" sheetId="1" r:id="rId1"/>
@@ -34,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="67">
   <si>
     <t xml:space="preserve">DENGŌ MARCENARIA </t>
   </si>
@@ -232,6 +237,9 @@
   </si>
   <si>
     <t>UNT (Unidades)</t>
+  </si>
+  <si>
+    <t>Este arquivo será modificado e salvo pelo GItHub</t>
   </si>
 </sst>
 </file>
@@ -702,7 +710,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -897,6 +905,7 @@
     <xf numFmtId="0" fontId="0" fillId="21" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2379,6 +2388,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-0E1A-48D2-B9AB-D49DB94E2F31}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -2399,6 +2413,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-0E1A-48D2-B9AB-D49DB94E2F31}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -3546,6 +3565,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-C908-4E4E-B736-BA69FD6B61D8}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -3576,6 +3600,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-C908-4E4E-B736-BA69FD6B61D8}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -3606,6 +3635,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-C908-4E4E-B736-BA69FD6B61D8}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -3636,6 +3670,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-C908-4E4E-B736-BA69FD6B61D8}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -3666,6 +3705,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-C908-4E4E-B736-BA69FD6B61D8}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -3696,6 +3740,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-C908-4E4E-B736-BA69FD6B61D8}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -9582,9 +9631,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -9602,14 +9651,14 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.0859375" customWidth="1"/>
-    <col min="6" max="6" width="11.02734375" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.109375" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -9624,7 +9673,7 @@
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -9639,7 +9688,7 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -9654,7 +9703,7 @@
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -9669,7 +9718,7 @@
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -9684,7 +9733,7 @@
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -9699,7 +9748,7 @@
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -9714,7 +9763,7 @@
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -9729,7 +9778,7 @@
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="98" t="s">
@@ -9756,7 +9805,7 @@
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="98"/>
@@ -9771,7 +9820,7 @@
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="98"/>
@@ -9786,7 +9835,7 @@
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="98"/>
@@ -9801,7 +9850,7 @@
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="98"/>
@@ -9816,7 +9865,7 @@
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -9831,7 +9880,7 @@
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -9846,7 +9895,7 @@
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -9861,7 +9910,7 @@
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -9876,7 +9925,7 @@
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -9891,7 +9940,7 @@
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -9906,7 +9955,7 @@
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -9921,7 +9970,7 @@
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -9936,7 +9985,7 @@
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -9951,7 +10000,7 @@
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -9966,7 +10015,7 @@
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -9981,7 +10030,7 @@
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -9996,7 +10045,7 @@
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -10011,7 +10060,7 @@
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -10026,7 +10075,7 @@
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -10041,7 +10090,7 @@
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -10056,7 +10105,7 @@
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -10071,7 +10120,7 @@
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -10086,7 +10135,7 @@
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -10101,7 +10150,7 @@
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -10116,7 +10165,7 @@
       <c r="L33" s="5"/>
       <c r="M33" s="5"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -10131,7 +10180,7 @@
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -10146,7 +10195,7 @@
       <c r="L35" s="5"/>
       <c r="M35" s="5"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -10161,7 +10210,7 @@
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -10176,7 +10225,7 @@
       <c r="L37" s="5"/>
       <c r="M37" s="5"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -10191,7 +10240,7 @@
       <c r="L38" s="5"/>
       <c r="M38" s="5"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -10206,7 +10255,7 @@
       <c r="L39" s="5"/>
       <c r="M39" s="5"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -10221,7 +10270,7 @@
       <c r="L40" s="5"/>
       <c r="M40" s="5"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -10236,7 +10285,7 @@
       <c r="L41" s="5"/>
       <c r="M41" s="5"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -10251,7 +10300,7 @@
       <c r="L42" s="5"/>
       <c r="M42" s="5"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -10266,7 +10315,7 @@
       <c r="L43" s="5"/>
       <c r="M43" s="5"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -10281,7 +10330,7 @@
       <c r="L44" s="5"/>
       <c r="M44" s="5"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -10296,7 +10345,7 @@
       <c r="L45" s="5"/>
       <c r="M45" s="5"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -10311,7 +10360,7 @@
       <c r="L46" s="5"/>
       <c r="M46" s="5"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -10326,7 +10375,7 @@
       <c r="L47" s="5"/>
       <c r="M47" s="5"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -10341,7 +10390,7 @@
       <c r="L48" s="5"/>
       <c r="M48" s="5"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -10356,7 +10405,7 @@
       <c r="L49" s="5"/>
       <c r="M49" s="5"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -10371,7 +10420,7 @@
       <c r="L50" s="5"/>
       <c r="M50" s="5"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -10386,7 +10435,7 @@
       <c r="L51" s="5"/>
       <c r="M51" s="5"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -10401,7 +10450,7 @@
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -10416,7 +10465,7 @@
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -10431,7 +10480,7 @@
       <c r="L54" s="5"/>
       <c r="M54" s="5"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -10446,7 +10495,7 @@
       <c r="L55" s="5"/>
       <c r="M55" s="5"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -10461,7 +10510,7 @@
       <c r="L56" s="5"/>
       <c r="M56" s="5"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -10476,7 +10525,7 @@
       <c r="L57" s="5"/>
       <c r="M57" s="5"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -10491,7 +10540,7 @@
       <c r="L58" s="5"/>
       <c r="M58" s="5"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -10506,7 +10555,7 @@
       <c r="L59" s="5"/>
       <c r="M59" s="5"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" s="5"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -10521,7 +10570,7 @@
       <c r="L60" s="5"/>
       <c r="M60" s="5"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
@@ -10536,7 +10585,7 @@
       <c r="L61" s="5"/>
       <c r="M61" s="5"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" s="5"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -10551,7 +10600,7 @@
       <c r="L62" s="5"/>
       <c r="M62" s="5"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -10566,7 +10615,7 @@
       <c r="L63" s="5"/>
       <c r="M63" s="5"/>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -10581,7 +10630,7 @@
       <c r="L64" s="5"/>
       <c r="M64" s="5"/>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -10596,7 +10645,7 @@
       <c r="L65" s="5"/>
       <c r="M65" s="5"/>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -10611,7 +10660,7 @@
       <c r="L66" s="5"/>
       <c r="M66" s="5"/>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -10626,7 +10675,7 @@
       <c r="L67" s="5"/>
       <c r="M67" s="5"/>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -10641,7 +10690,7 @@
       <c r="L68" s="5"/>
       <c r="M68" s="5"/>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -10656,7 +10705,7 @@
       <c r="L69" s="5"/>
       <c r="M69" s="5"/>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -10671,7 +10720,7 @@
       <c r="L70" s="5"/>
       <c r="M70" s="5"/>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
@@ -10703,9 +10752,9 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -10717,14 +10766,14 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:10" ht="61.5" x14ac:dyDescent="0.85">
+    <row r="2" spans="1:10" ht="61.2" x14ac:dyDescent="1.1000000000000001">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -10736,114 +10785,114 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J28" s="2"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J29" s="2"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J30" s="2"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J31" s="2"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J32" s="2"/>
     </row>
   </sheetData>
@@ -10859,12 +10908,12 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.6796875" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="99.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:19" ht="99.75" customHeight="1" x14ac:dyDescent="0.8">
       <c r="A1" s="96" t="s">
         <v>54</v>
       </c>
@@ -10887,7 +10936,7 @@
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -10908,7 +10957,7 @@
       <c r="R2" s="5"/>
       <c r="S2" s="5"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -10929,7 +10978,7 @@
       <c r="R3" s="5"/>
       <c r="S3" s="5"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -10950,7 +10999,7 @@
       <c r="R4" s="5"/>
       <c r="S4" s="5"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="100" t="s">
         <v>10</v>
@@ -10975,7 +11024,7 @@
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="99" t="s">
         <v>55</v>
@@ -11000,7 +11049,7 @@
       <c r="R6" s="5"/>
       <c r="S6" s="5"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="B7" s="99" t="s">
         <v>56</v>
@@ -11025,7 +11074,7 @@
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="99" t="s">
         <v>57</v>
@@ -11050,7 +11099,7 @@
       <c r="R8" s="5"/>
       <c r="S8" s="5"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="99" t="s">
         <v>58</v>
@@ -11075,7 +11124,7 @@
       <c r="R9" s="5"/>
       <c r="S9" s="5"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="99" t="s">
         <v>30</v>
@@ -11100,7 +11149,7 @@
       <c r="R10" s="5"/>
       <c r="S10" s="5"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="98"/>
       <c r="C11" s="5"/>
@@ -11121,7 +11170,7 @@
       <c r="R11" s="5"/>
       <c r="S11" s="5"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="98"/>
       <c r="C12" s="5"/>
@@ -11142,7 +11191,7 @@
       <c r="R12" s="5"/>
       <c r="S12" s="5"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -11163,7 +11212,7 @@
       <c r="R13" s="5"/>
       <c r="S13" s="5"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -11184,7 +11233,7 @@
       <c r="R14" s="5"/>
       <c r="S14" s="5"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -11205,7 +11254,7 @@
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -11226,7 +11275,7 @@
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -11247,7 +11296,7 @@
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -11268,7 +11317,7 @@
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -11289,7 +11338,7 @@
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -11310,7 +11359,7 @@
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -11331,7 +11380,7 @@
       <c r="R21" s="5"/>
       <c r="S21" s="5"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -11352,7 +11401,7 @@
       <c r="R22" s="5"/>
       <c r="S22" s="5"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -11373,7 +11422,7 @@
       <c r="R23" s="5"/>
       <c r="S23" s="5"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -11394,7 +11443,7 @@
       <c r="R24" s="5"/>
       <c r="S24" s="5"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -11415,7 +11464,7 @@
       <c r="R25" s="5"/>
       <c r="S25" s="5"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -11436,7 +11485,7 @@
       <c r="R26" s="5"/>
       <c r="S26" s="5"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -11457,7 +11506,7 @@
       <c r="R27" s="5"/>
       <c r="S27" s="5"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -11478,7 +11527,7 @@
       <c r="R28" s="5"/>
       <c r="S28" s="5"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -11499,7 +11548,7 @@
       <c r="R29" s="5"/>
       <c r="S29" s="5"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -11520,7 +11569,7 @@
       <c r="R30" s="5"/>
       <c r="S30" s="5"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -11541,7 +11590,7 @@
       <c r="R31" s="5"/>
       <c r="S31" s="5"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -11562,7 +11611,7 @@
       <c r="R32" s="5"/>
       <c r="S32" s="5"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -11583,7 +11632,7 @@
       <c r="R33" s="5"/>
       <c r="S33" s="5"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -11604,7 +11653,7 @@
       <c r="R34" s="5"/>
       <c r="S34" s="5"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -11625,7 +11674,7 @@
       <c r="R35" s="5"/>
       <c r="S35" s="5"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -11646,7 +11695,7 @@
       <c r="R36" s="5"/>
       <c r="S36" s="5"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -11667,7 +11716,7 @@
       <c r="R37" s="5"/>
       <c r="S37" s="5"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -11688,7 +11737,7 @@
       <c r="R38" s="5"/>
       <c r="S38" s="5"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -11709,7 +11758,7 @@
       <c r="R39" s="5"/>
       <c r="S39" s="5"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -11730,7 +11779,7 @@
       <c r="R40" s="5"/>
       <c r="S40" s="5"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -11751,7 +11800,7 @@
       <c r="R41" s="5"/>
       <c r="S41" s="5"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -11772,7 +11821,7 @@
       <c r="R42" s="5"/>
       <c r="S42" s="5"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -11793,7 +11842,7 @@
       <c r="R43" s="5"/>
       <c r="S43" s="5"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -11814,7 +11863,7 @@
       <c r="R44" s="5"/>
       <c r="S44" s="5"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -11835,7 +11884,7 @@
       <c r="R45" s="5"/>
       <c r="S45" s="5"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -11856,7 +11905,7 @@
       <c r="R46" s="5"/>
       <c r="S46" s="5"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -11877,7 +11926,7 @@
       <c r="R47" s="5"/>
       <c r="S47" s="5"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -11898,7 +11947,7 @@
       <c r="R48" s="5"/>
       <c r="S48" s="5"/>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -11919,7 +11968,7 @@
       <c r="R49" s="5"/>
       <c r="S49" s="5"/>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -11940,7 +11989,7 @@
       <c r="R50" s="5"/>
       <c r="S50" s="5"/>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -11961,7 +12010,7 @@
       <c r="R51" s="5"/>
       <c r="S51" s="5"/>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -11982,7 +12031,7 @@
       <c r="R52" s="5"/>
       <c r="S52" s="5"/>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -12003,7 +12052,7 @@
       <c r="R53" s="5"/>
       <c r="S53" s="5"/>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -12024,7 +12073,7 @@
       <c r="R54" s="5"/>
       <c r="S54" s="5"/>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -12045,7 +12094,7 @@
       <c r="R55" s="5"/>
       <c r="S55" s="5"/>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -12066,7 +12115,7 @@
       <c r="R56" s="5"/>
       <c r="S56" s="5"/>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -12087,7 +12136,7 @@
       <c r="R57" s="5"/>
       <c r="S57" s="5"/>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -12108,7 +12157,7 @@
       <c r="R58" s="5"/>
       <c r="S58" s="5"/>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -12129,7 +12178,7 @@
       <c r="R59" s="5"/>
       <c r="S59" s="5"/>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A60" s="5"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -12164,17 +12213,17 @@
       <selection activeCell="P55" sqref="P55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.5546875" customWidth="1"/>
-    <col min="3" max="3" width="11.97265625" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
     <col min="11" max="11" width="2.5546875" customWidth="1"/>
     <col min="13" max="13" width="2.5546875" customWidth="1"/>
     <col min="20" max="20" width="2.5546875" customWidth="1"/>
     <col min="23" max="23" width="2.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -12199,7 +12248,7 @@
       <c r="V1" s="5"/>
       <c r="W1" s="5"/>
     </row>
-    <row r="2" spans="1:23" ht="69.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:23" ht="69.75" customHeight="1" x14ac:dyDescent="1.05">
       <c r="A2" s="5"/>
       <c r="B2" s="94" t="s">
         <v>38</v>
@@ -12226,7 +12275,7 @@
       <c r="V2" s="93"/>
       <c r="W2" s="5"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -12251,7 +12300,7 @@
       <c r="V3" s="5"/>
       <c r="W3" s="5"/>
     </row>
-    <row r="4" spans="1:23" ht="25.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" ht="25.2" x14ac:dyDescent="0.45">
       <c r="A4" s="5"/>
       <c r="B4" s="79"/>
       <c r="C4" s="79"/>
@@ -12280,7 +12329,7 @@
       <c r="V4" s="7"/>
       <c r="W4" s="5"/>
     </row>
-    <row r="5" spans="1:23" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -12305,7 +12354,7 @@
       <c r="V5" s="5"/>
       <c r="W5" s="5"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -12330,7 +12379,7 @@
       <c r="V6" s="7"/>
       <c r="W6" s="5"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -12355,7 +12404,7 @@
       <c r="V7" s="7"/>
       <c r="W7" s="5"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="7"/>
       <c r="C8" s="84" t="s">
@@ -12384,7 +12433,7 @@
       <c r="V8" s="7"/>
       <c r="W8" s="5"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="7"/>
       <c r="C9" s="86" t="s">
@@ -12417,7 +12466,7 @@
       <c r="V9" s="7"/>
       <c r="W9" s="5"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="7"/>
       <c r="C10" s="86" t="s">
@@ -12450,7 +12499,7 @@
       <c r="V10" s="7"/>
       <c r="W10" s="5"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="7"/>
       <c r="C11" s="86" t="s">
@@ -12483,7 +12532,7 @@
       <c r="V11" s="7"/>
       <c r="W11" s="5"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -12508,7 +12557,7 @@
       <c r="V12" s="7"/>
       <c r="W12" s="5"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -12533,7 +12582,7 @@
       <c r="V13" s="7"/>
       <c r="W13" s="5"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -12558,7 +12607,7 @@
       <c r="V14" s="7"/>
       <c r="W14" s="5"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -12583,7 +12632,7 @@
       <c r="V15" s="7"/>
       <c r="W15" s="5"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -12608,7 +12657,7 @@
       <c r="V16" s="7"/>
       <c r="W16" s="5"/>
     </row>
-    <row r="17" spans="1:112" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -12633,7 +12682,7 @@
       <c r="V17" s="7"/>
       <c r="W17" s="5"/>
     </row>
-    <row r="18" spans="1:112" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -12658,7 +12707,7 @@
       <c r="V18" s="7"/>
       <c r="W18" s="5"/>
     </row>
-    <row r="19" spans="1:112" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -12683,7 +12732,7 @@
       <c r="V19" s="7"/>
       <c r="W19" s="5"/>
     </row>
-    <row r="20" spans="1:112" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -12708,7 +12757,7 @@
       <c r="V20" s="5"/>
       <c r="W20" s="5"/>
     </row>
-    <row r="21" spans="1:112" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:112" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="W21" s="5"/>
       <c r="X21"/>
       <c r="Y21"/>
@@ -12800,7 +12849,7 @@
       <c r="DG21"/>
       <c r="DH21"/>
     </row>
-    <row r="22" spans="1:112" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -12825,7 +12874,7 @@
       <c r="V22" s="4"/>
       <c r="W22" s="5"/>
     </row>
-    <row r="23" spans="1:112" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -12850,7 +12899,7 @@
       <c r="V23" s="4"/>
       <c r="W23" s="5"/>
     </row>
-    <row r="24" spans="1:112" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:112" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="5"/>
       <c r="B24" s="79"/>
       <c r="C24" s="79"/>
@@ -12877,7 +12926,7 @@
       <c r="V24" s="4"/>
       <c r="W24" s="5"/>
     </row>
-    <row r="25" spans="1:112" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:112" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -12902,7 +12951,7 @@
       <c r="V25" s="4"/>
       <c r="W25" s="5"/>
     </row>
-    <row r="26" spans="1:112" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -12927,7 +12976,7 @@
       <c r="V26" s="4"/>
       <c r="W26" s="5"/>
     </row>
-    <row r="27" spans="1:112" ht="27" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:112" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="5"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -12952,7 +13001,7 @@
       <c r="V27" s="4"/>
       <c r="W27" s="5"/>
     </row>
-    <row r="28" spans="1:112" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:112" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5"/>
       <c r="B28" s="7"/>
       <c r="C28" s="84" t="s">
@@ -12981,7 +13030,7 @@
       <c r="V28" s="4"/>
       <c r="W28" s="5"/>
     </row>
-    <row r="29" spans="1:112" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:112" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="5"/>
       <c r="B29" s="7"/>
       <c r="C29" s="86" t="s">
@@ -13012,7 +13061,7 @@
       <c r="V29" s="4"/>
       <c r="W29" s="5"/>
     </row>
-    <row r="30" spans="1:112" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:112" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="5"/>
       <c r="B30" s="7"/>
       <c r="C30" s="86" t="s">
@@ -13041,7 +13090,7 @@
       <c r="V30" s="4"/>
       <c r="W30" s="5"/>
     </row>
-    <row r="31" spans="1:112" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:112" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="7"/>
       <c r="C31" s="86" t="s">
@@ -13072,7 +13121,7 @@
       <c r="V31" s="4"/>
       <c r="W31" s="5"/>
     </row>
-    <row r="32" spans="1:112" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:112" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="5"/>
       <c r="B32" s="7"/>
       <c r="C32" s="86" t="s">
@@ -13101,7 +13150,7 @@
       <c r="V32" s="4"/>
       <c r="W32" s="5"/>
     </row>
-    <row r="33" spans="1:23" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="5"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -13128,7 +13177,7 @@
       <c r="V33" s="4"/>
       <c r="W33" s="5"/>
     </row>
-    <row r="34" spans="1:23" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="5"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -13153,7 +13202,7 @@
       <c r="V34" s="4"/>
       <c r="W34" s="5"/>
     </row>
-    <row r="35" spans="1:23" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="5"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -13180,7 +13229,7 @@
       <c r="V35" s="4"/>
       <c r="W35" s="5"/>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A36" s="5"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -13205,7 +13254,7 @@
       <c r="V36" s="4"/>
       <c r="W36" s="5"/>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -13230,7 +13279,7 @@
       <c r="V37" s="4"/>
       <c r="W37" s="5"/>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A38" s="5"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -13255,7 +13304,7 @@
       <c r="V38" s="4"/>
       <c r="W38" s="5"/>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A39" s="5"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -13280,7 +13329,7 @@
       <c r="V39" s="4"/>
       <c r="W39" s="5"/>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A40" s="5"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -13305,7 +13354,7 @@
       <c r="V40" s="4"/>
       <c r="W40" s="5"/>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A41" s="5"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -13330,7 +13379,7 @@
       <c r="V41" s="4"/>
       <c r="W41" s="5"/>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -13363,26 +13412,26 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AE8798A-D781-D34D-B8C9-47FF9DD4EEDE}">
-  <dimension ref="A1:W76"/>
+  <dimension ref="A1:W78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="X57" sqref="X57"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="L79" sqref="L79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.61328125" customWidth="1"/>
-    <col min="2" max="2" width="7.26171875" customWidth="1"/>
+    <col min="1" max="1" width="1.6640625" customWidth="1"/>
+    <col min="2" max="2" width="7.21875" customWidth="1"/>
     <col min="3" max="3" width="2.5546875" customWidth="1"/>
-    <col min="4" max="4" width="16.6796875" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
-    <col min="6" max="6" width="16.6796875" customWidth="1"/>
-    <col min="11" max="11" width="1.61328125" customWidth="1"/>
-    <col min="14" max="14" width="8.609375" style="77"/>
-    <col min="23" max="23" width="1.61328125" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" customWidth="1"/>
+    <col min="11" max="11" width="1.6640625" customWidth="1"/>
+    <col min="14" max="14" width="8.5546875" style="77"/>
+    <col min="23" max="23" width="1.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -13407,7 +13456,7 @@
       <c r="V1" s="5"/>
       <c r="W1" s="5"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="29"/>
       <c r="C2" s="29"/>
@@ -13432,7 +13481,7 @@
       <c r="V2" s="29"/>
       <c r="W2" s="5"/>
     </row>
-    <row r="3" spans="1:23" ht="89.25" x14ac:dyDescent="1.05">
+    <row r="3" spans="1:23" ht="90.6" x14ac:dyDescent="1.45">
       <c r="A3" s="5"/>
       <c r="B3" s="32" t="s">
         <v>2</v>
@@ -13459,7 +13508,7 @@
       <c r="V3" s="29"/>
       <c r="W3" s="5"/>
     </row>
-    <row r="4" spans="1:23" ht="59.25" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:23" ht="61.2" x14ac:dyDescent="1.05">
       <c r="A4" s="5"/>
       <c r="B4" s="36" t="s">
         <v>3</v>
@@ -13486,7 +13535,7 @@
       <c r="V4" s="29"/>
       <c r="W4" s="5"/>
     </row>
-    <row r="5" spans="1:23" ht="9.75" customHeight="1" x14ac:dyDescent="1.3">
+    <row r="5" spans="1:23" ht="9.75" customHeight="1" x14ac:dyDescent="1.65">
       <c r="A5" s="5"/>
       <c r="B5" s="69"/>
       <c r="C5" s="69"/>
@@ -13511,7 +13560,7 @@
       <c r="V5" s="5"/>
       <c r="W5" s="5"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -13536,7 +13585,7 @@
       <c r="V6" s="4"/>
       <c r="W6" s="5"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -13561,7 +13610,7 @@
       <c r="V7" s="4"/>
       <c r="W7" s="5"/>
     </row>
-    <row r="8" spans="1:23" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -13586,7 +13635,7 @@
       <c r="V8" s="4"/>
       <c r="W8" s="5"/>
     </row>
-    <row r="9" spans="1:23" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="5"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -13613,7 +13662,7 @@
       <c r="V9" s="4"/>
       <c r="W9" s="5"/>
     </row>
-    <row r="10" spans="1:23" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" ht="5.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -13638,7 +13687,7 @@
       <c r="V10" s="4"/>
       <c r="W10" s="5"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
@@ -13663,7 +13712,7 @@
       <c r="V11" s="4"/>
       <c r="W11" s="5"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
@@ -13692,7 +13741,7 @@
       <c r="V12" s="4"/>
       <c r="W12" s="5"/>
     </row>
-    <row r="13" spans="1:23" ht="21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" ht="21" x14ac:dyDescent="0.4">
       <c r="A13" s="5"/>
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
@@ -13721,7 +13770,7 @@
       <c r="V13" s="4"/>
       <c r="W13" s="5"/>
     </row>
-    <row r="14" spans="1:23" ht="21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" ht="21" x14ac:dyDescent="0.4">
       <c r="A14" s="5"/>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
@@ -13750,7 +13799,7 @@
       <c r="V14" s="4"/>
       <c r="W14" s="5"/>
     </row>
-    <row r="15" spans="1:23" ht="21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" ht="21" x14ac:dyDescent="0.4">
       <c r="A15" s="5"/>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
@@ -13779,7 +13828,7 @@
       <c r="V15" s="4"/>
       <c r="W15" s="5"/>
     </row>
-    <row r="16" spans="1:23" ht="21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" ht="21" x14ac:dyDescent="0.4">
       <c r="A16" s="5"/>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
@@ -13808,7 +13857,7 @@
       <c r="V16" s="4"/>
       <c r="W16" s="5"/>
     </row>
-    <row r="17" spans="1:23" ht="21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" ht="21" x14ac:dyDescent="0.4">
       <c r="A17" s="5"/>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
@@ -13837,7 +13886,7 @@
       <c r="V17" s="4"/>
       <c r="W17" s="5"/>
     </row>
-    <row r="18" spans="1:23" ht="21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" ht="21" x14ac:dyDescent="0.4">
       <c r="A18" s="5"/>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
@@ -13866,7 +13915,7 @@
       <c r="V18" s="4"/>
       <c r="W18" s="5"/>
     </row>
-    <row r="19" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
@@ -13891,7 +13940,7 @@
       <c r="V19" s="4"/>
       <c r="W19" s="5"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
@@ -13918,7 +13967,7 @@
       <c r="V20" s="4"/>
       <c r="W20" s="5"/>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
@@ -13945,7 +13994,7 @@
       <c r="V21" s="4"/>
       <c r="W21" s="5"/>
     </row>
-    <row r="22" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5"/>
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
@@ -13972,7 +14021,7 @@
       <c r="V22" s="4"/>
       <c r="W22" s="5"/>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
@@ -13997,7 +14046,7 @@
       <c r="V23" s="4"/>
       <c r="W23" s="5"/>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
@@ -14022,7 +14071,7 @@
       <c r="V24" s="4"/>
       <c r="W24" s="5"/>
     </row>
-    <row r="25" spans="1:23" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -14047,7 +14096,7 @@
       <c r="V25" s="4"/>
       <c r="W25" s="5"/>
     </row>
-    <row r="26" spans="1:23" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="5"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -14074,7 +14123,7 @@
       <c r="V26" s="4"/>
       <c r="W26" s="5"/>
     </row>
-    <row r="27" spans="1:23" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -14099,7 +14148,7 @@
       <c r="V27" s="4"/>
       <c r="W27" s="5"/>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
@@ -14124,7 +14173,7 @@
       <c r="V28" s="4"/>
       <c r="W28" s="5"/>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
@@ -14149,7 +14198,7 @@
       <c r="V29" s="4"/>
       <c r="W29" s="5"/>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
       <c r="B30" s="15"/>
       <c r="C30" s="15"/>
@@ -14178,7 +14227,7 @@
       <c r="V30" s="4"/>
       <c r="W30" s="5"/>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="5"/>
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
@@ -14207,7 +14256,7 @@
       <c r="V31" s="4"/>
       <c r="W31" s="5"/>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="5"/>
       <c r="B32" s="15"/>
       <c r="C32" s="15"/>
@@ -14236,7 +14285,7 @@
       <c r="V32" s="4"/>
       <c r="W32" s="5"/>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
       <c r="B33" s="15"/>
       <c r="C33" s="15"/>
@@ -14265,7 +14314,7 @@
       <c r="V33" s="4"/>
       <c r="W33" s="5"/>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="5"/>
       <c r="B34" s="15"/>
       <c r="C34" s="15"/>
@@ -14294,7 +14343,7 @@
       <c r="V34" s="4"/>
       <c r="W34" s="5"/>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="5"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -14323,7 +14372,7 @@
       <c r="V35" s="4"/>
       <c r="W35" s="5"/>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A36" s="5"/>
       <c r="B36" s="15"/>
       <c r="C36" s="15"/>
@@ -14348,7 +14397,7 @@
       <c r="V36" s="4"/>
       <c r="W36" s="5"/>
     </row>
-    <row r="37" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="5"/>
       <c r="B37" s="15"/>
       <c r="C37" s="15"/>
@@ -14373,7 +14422,7 @@
       <c r="V37" s="4"/>
       <c r="W37" s="5"/>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A38" s="5"/>
       <c r="B38" s="15"/>
       <c r="C38" s="15"/>
@@ -14400,7 +14449,7 @@
       <c r="V38" s="4"/>
       <c r="W38" s="5"/>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A39" s="5"/>
       <c r="B39" s="15"/>
       <c r="C39" s="15"/>
@@ -14427,7 +14476,7 @@
       <c r="V39" s="4"/>
       <c r="W39" s="5"/>
     </row>
-    <row r="40" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="5"/>
       <c r="B40" s="15"/>
       <c r="C40" s="15"/>
@@ -14454,7 +14503,7 @@
       <c r="V40" s="4"/>
       <c r="W40" s="5"/>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A41" s="5"/>
       <c r="B41" s="15"/>
       <c r="C41" s="15"/>
@@ -14479,7 +14528,7 @@
       <c r="V41" s="4"/>
       <c r="W41" s="5"/>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
       <c r="B42" s="15"/>
       <c r="C42" s="15"/>
@@ -14504,7 +14553,7 @@
       <c r="V42" s="4"/>
       <c r="W42" s="5"/>
     </row>
-    <row r="43" spans="1:23" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:23" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -14529,7 +14578,7 @@
       <c r="V43" s="4"/>
       <c r="W43" s="5"/>
     </row>
-    <row r="44" spans="1:23" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:23" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="5"/>
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
@@ -14556,7 +14605,7 @@
       <c r="V44" s="4"/>
       <c r="W44" s="5"/>
     </row>
-    <row r="45" spans="1:23" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:23" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -14581,7 +14630,7 @@
       <c r="V45" s="4"/>
       <c r="W45" s="5"/>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A46" s="5"/>
       <c r="B46" s="15"/>
       <c r="C46" s="15"/>
@@ -14606,7 +14655,7 @@
       <c r="V46" s="4"/>
       <c r="W46" s="5"/>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A47" s="5"/>
       <c r="B47" s="15"/>
       <c r="C47" s="15"/>
@@ -14631,7 +14680,7 @@
       <c r="V47" s="4"/>
       <c r="W47" s="5"/>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A48" s="5"/>
       <c r="B48" s="15"/>
       <c r="C48" s="15"/>
@@ -14660,7 +14709,7 @@
       <c r="V48" s="4"/>
       <c r="W48" s="5"/>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A49" s="5"/>
       <c r="B49" s="15"/>
       <c r="C49" s="15"/>
@@ -14689,7 +14738,7 @@
       <c r="V49" s="4"/>
       <c r="W49" s="5"/>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A50" s="5"/>
       <c r="B50" s="15"/>
       <c r="C50" s="15"/>
@@ -14718,7 +14767,7 @@
       <c r="V50" s="4"/>
       <c r="W50" s="5"/>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A51" s="5"/>
       <c r="B51" s="15"/>
       <c r="C51" s="15"/>
@@ -14747,7 +14796,7 @@
       <c r="V51" s="4"/>
       <c r="W51" s="5"/>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A52" s="5"/>
       <c r="B52" s="15"/>
       <c r="C52" s="15"/>
@@ -14776,7 +14825,7 @@
       <c r="V52" s="4"/>
       <c r="W52" s="5"/>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A53" s="5"/>
       <c r="B53" s="15"/>
       <c r="C53" s="15"/>
@@ -14805,7 +14854,7 @@
       <c r="V53" s="4"/>
       <c r="W53" s="5"/>
     </row>
-    <row r="54" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="5"/>
       <c r="B54" s="15"/>
       <c r="C54" s="15"/>
@@ -14830,7 +14879,7 @@
       <c r="V54" s="4"/>
       <c r="W54" s="5"/>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A55" s="5"/>
       <c r="B55" s="15"/>
       <c r="C55" s="15"/>
@@ -14857,7 +14906,7 @@
       <c r="V55" s="4"/>
       <c r="W55" s="5"/>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A56" s="5"/>
       <c r="B56" s="15"/>
       <c r="C56" s="15"/>
@@ -14884,7 +14933,7 @@
       <c r="V56" s="4"/>
       <c r="W56" s="5"/>
     </row>
-    <row r="57" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="5"/>
       <c r="B57" s="15"/>
       <c r="C57" s="15"/>
@@ -14911,7 +14960,7 @@
       <c r="V57" s="4"/>
       <c r="W57" s="5"/>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A58" s="5"/>
       <c r="B58" s="15"/>
       <c r="C58" s="15"/>
@@ -14936,7 +14985,7 @@
       <c r="V58" s="4"/>
       <c r="W58" s="5"/>
     </row>
-    <row r="59" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -14961,7 +15010,7 @@
       <c r="V59" s="4"/>
       <c r="W59" s="5"/>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A60" s="5"/>
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
@@ -14986,7 +15035,7 @@
       <c r="V60" s="4"/>
       <c r="W60" s="5"/>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A61" s="5"/>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
@@ -15011,7 +15060,7 @@
       <c r="V61" s="4"/>
       <c r="W61" s="5"/>
     </row>
-    <row r="62" spans="1:23" ht="27" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:23" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="5"/>
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
@@ -15038,7 +15087,7 @@
       <c r="V62" s="4"/>
       <c r="W62" s="5"/>
     </row>
-    <row r="63" spans="1:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:23" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="5"/>
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
@@ -15063,7 +15112,7 @@
       <c r="V63" s="4"/>
       <c r="W63" s="5"/>
     </row>
-    <row r="64" spans="1:23" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="5"/>
       <c r="B64" s="7"/>
       <c r="C64" s="38"/>
@@ -15090,7 +15139,7 @@
       <c r="V64" s="4"/>
       <c r="W64" s="5"/>
     </row>
-    <row r="65" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" s="5"/>
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
@@ -15115,7 +15164,7 @@
       <c r="V65" s="4"/>
       <c r="W65" s="5"/>
     </row>
-    <row r="66" spans="1:23" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="5"/>
       <c r="B66" s="7"/>
       <c r="C66" s="39"/>
@@ -15142,7 +15191,7 @@
       <c r="V66" s="4"/>
       <c r="W66" s="5"/>
     </row>
-    <row r="67" spans="1:23" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67" s="5"/>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
@@ -15167,7 +15216,7 @@
       <c r="V67" s="4"/>
       <c r="W67" s="5"/>
     </row>
-    <row r="68" spans="1:23" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="5"/>
       <c r="B68" s="7"/>
       <c r="C68" s="109"/>
@@ -15194,7 +15243,7 @@
       <c r="V68" s="4"/>
       <c r="W68" s="5"/>
     </row>
-    <row r="69" spans="1:23" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" s="5"/>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
@@ -15219,7 +15268,7 @@
       <c r="V69" s="4"/>
       <c r="W69" s="5"/>
     </row>
-    <row r="70" spans="1:23" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="5"/>
       <c r="B70" s="7"/>
       <c r="C70" s="40"/>
@@ -15246,7 +15295,7 @@
       <c r="V70" s="4"/>
       <c r="W70" s="5"/>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A71" s="5"/>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
@@ -15271,7 +15320,7 @@
       <c r="V71" s="4"/>
       <c r="W71" s="5"/>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A72" s="5"/>
       <c r="B72" s="7"/>
       <c r="C72" s="110"/>
@@ -15298,7 +15347,7 @@
       <c r="V72" s="4"/>
       <c r="W72" s="5"/>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A73" s="5"/>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
@@ -15323,7 +15372,7 @@
       <c r="V73" s="4"/>
       <c r="W73" s="5"/>
     </row>
-    <row r="74" spans="1:23" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:23" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
@@ -15348,8 +15397,14 @@
       <c r="V74" s="5"/>
       <c r="W74" s="5"/>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.3">
       <c r="G76" s="95"/>
+      <c r="H76" s="112"/>
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="L78" t="s">
+        <v>66</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" alignment="center"/>
@@ -15366,7 +15421,7 @@
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15380,7 +15435,7 @@
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
